--- a/biology/Botanique/Machaerium_lunatum/Machaerium_lunatum.xlsx
+++ b/biology/Botanique/Machaerium_lunatum/Machaerium_lunatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Machaerium lunatum est une espèce d'arbuste épineux de la famille des Fabaceae, sous-famille des Faboideae.
-On le désigne sous les noms de Croc-chien, Mangle, Mangle-médaille dans les Antilles françaises (Guadeloupe, Martinique)[4], Amourette en Guyane notamment dans la région de Kaw[5], Atuíra ou Cortiça en portugais, et Palo de hoz en anglais[6].
+On le désigne sous les noms de Croc-chien, Mangle, Mangle-médaille dans les Antilles françaises (Guadeloupe, Martinique), Amourette en Guyane notamment dans la région de Kaw, Atuíra ou Cortiça en portugais, et Palo de hoz en anglais.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste érigé ou parfois lianescent peut atteindre jusqu'à 8 mètres de haut[7]. Il porte des épines acérées, recourbées, dérivées de ses stipules. Ses feuilles sont imparipennées à 5-11 folioles généralement glabres, linéaires, oblongues à rondes, oblancéolées, mucronées à l'apex et mesurant 2-5 x 0,5-1,5 centimètres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste érigé ou parfois lianescent peut atteindre jusqu'à 8 mètres de haut. Il porte des épines acérées, recourbées, dérivées de ses stipules. Ses feuilles sont imparipennées à 5-11 folioles généralement glabres, linéaires, oblongues à rondes, oblancéolées, mucronées à l'apex et mesurant 2-5 x 0,5-1,5 centimètres.
 Ses inflorescences terminales mesurent environ 15 centimètres. Ses fleurs comportent un calice tomenteux à 5 dents mesurant 4 millimètres, une corolle bleue à violette, dont l'étendard est long de 9 millimètres.
-Son fruit est une gousse aplatie, mesurant 3-4 x 2 centimètres pour 5 millimètres d'épaisseur, recourbée sur elle-même pour former un disque[4].
+Son fruit est une gousse aplatie, mesurant 3-4 x 2 centimètres pour 5 millimètres d'épaisseur, recourbée sur elle-même pour former un disque.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre cet arbuste dans les Antilles (Hispaniola, Porto Rico, Petites Antilles), en Amérique centrale (Nicaragua, Costa Rica, Panama, Colombie côtière), en Amérique du Sud (Venezuela, Trinidad, Guyana, Suriname, Guyane, Brésil) et dans la zone tropicale de l'Afrique de l'Ouest (du Sénégal à l'Angola)[4]. Au Venezuela, il est présent dans les États de Monagas, Sucre et est particulièrement répandu dans le Delta Amacuro[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cet arbuste dans les Antilles (Hispaniola, Porto Rico, Petites Antilles), en Amérique centrale (Nicaragua, Costa Rica, Panama, Colombie côtière), en Amérique du Sud (Venezuela, Trinidad, Guyana, Suriname, Guyane, Brésil) et dans la zone tropicale de l'Afrique de l'Ouest (du Sénégal à l'Angola). Au Venezuela, il est présent dans les États de Monagas, Sucre et est particulièrement répandu dans le Delta Amacuro.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste épineux pousse sur les littoraux, dans les marais côtiers saumâtres, sur les sols sablonneux, et dans les mangroves, depuis le niveau de la mer jusqu'à 50 mètres d'altitude[7]. Il forme des fourrés denses et impénétrables. Il fleurit en Guyane de novembre à décembre[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste épineux pousse sur les littoraux, dans les marais côtiers saumâtres, sur les sols sablonneux, et dans les mangroves, depuis le niveau de la mer jusqu'à 50 mètres d'altitude. Il forme des fourrés denses et impénétrables. Il fleurit en Guyane de novembre à décembre.
 			Fleur de Machaerium lunatum (Guadeloupe).
 			Gousse de Machaerium lunatum (L.) Ducke (d'après Paul Hermann Wilhelm Taubert, 1891)
 </t>
